--- a/templates/Template_Record.xlsx
+++ b/templates/Template_Record.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,15 +27,12 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="16"/>
+      <sz val="14"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00111827"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <i val="1"/>
+      <color rgb="00374151"/>
+      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
@@ -50,12 +47,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5E7EB"/>
+        <fgColor rgb="00E7EEF9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00111827"/>
+        <fgColor rgb="00F3F4F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -69,16 +66,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00D0D7DE"/>
+        <color rgb="009AA4B2"/>
       </left>
       <right style="thin">
-        <color rgb="00D0D7DE"/>
+        <color rgb="009AA4B2"/>
       </right>
       <top style="thin">
-        <color rgb="00D0D7DE"/>
+        <color rgb="009AA4B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="00D0D7DE"/>
+        <color rgb="009AA4B2"/>
       </bottom>
     </border>
   </borders>
@@ -88,23 +85,23 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,45 +468,44 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="34" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>TEMPLATE RECORD (CATATAN / REKAMAN MUTU)</t>
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Petunjuk: Isi identitas (opsional). Log Record diisi per kejadian. Kolom Lampiran opsional (nama file). Kolom Status misalnya: Draft / Diverifikasi / Selesai.</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Identitas Form/Record</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Identitas Form/Record (Opsional)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -522,12 +518,6 @@
           <t>Isi</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -536,12 +526,6 @@
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
@@ -550,12 +534,6 @@
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
@@ -564,12 +542,6 @@
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
@@ -578,26 +550,14 @@
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Verifikator</t>
+          <t>Verifikator (opsional)</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
@@ -606,12 +566,6 @@
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
@@ -620,12 +574,6 @@
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
@@ -634,26 +582,13 @@
         </is>
       </c>
       <c r="B12" s="6" t="inlineStr"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Log Record (Isi Baris per Kejadian)</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
@@ -698,219 +633,451 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr"/>
-      <c r="B16" s="6" t="inlineStr"/>
-      <c r="C16" s="6" t="inlineStr"/>
-      <c r="D16" s="6" t="inlineStr"/>
-      <c r="E16" s="6" t="inlineStr"/>
-      <c r="F16" s="6" t="inlineStr"/>
-      <c r="G16" s="6" t="inlineStr"/>
-      <c r="H16" s="6" t="inlineStr"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr"/>
-      <c r="B17" s="6" t="inlineStr"/>
-      <c r="C17" s="6" t="inlineStr"/>
-      <c r="D17" s="6" t="inlineStr"/>
-      <c r="E17" s="6" t="inlineStr"/>
-      <c r="F17" s="6" t="inlineStr"/>
-      <c r="G17" s="6" t="inlineStr"/>
-      <c r="H17" s="6" t="inlineStr"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr"/>
-      <c r="B18" s="6" t="inlineStr"/>
-      <c r="C18" s="6" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
-      <c r="E18" s="6" t="inlineStr"/>
-      <c r="F18" s="6" t="inlineStr"/>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr"/>
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr"/>
-      <c r="B19" s="6" t="inlineStr"/>
-      <c r="C19" s="6" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
-      <c r="E19" s="6" t="inlineStr"/>
-      <c r="F19" s="6" t="inlineStr"/>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr"/>
-      <c r="B20" s="6" t="inlineStr"/>
-      <c r="C20" s="6" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
-      <c r="E20" s="6" t="inlineStr"/>
-      <c r="F20" s="6" t="inlineStr"/>
-      <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr"/>
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr"/>
-      <c r="B21" s="6" t="inlineStr"/>
-      <c r="C21" s="6" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
-      <c r="E21" s="6" t="inlineStr"/>
-      <c r="F21" s="6" t="inlineStr"/>
-      <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="6" t="n"/>
+      <c r="H21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr"/>
-      <c r="B22" s="6" t="inlineStr"/>
-      <c r="C22" s="6" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
-      <c r="E22" s="6" t="inlineStr"/>
-      <c r="F22" s="6" t="inlineStr"/>
-      <c r="G22" s="6" t="inlineStr"/>
-      <c r="H22" s="6" t="inlineStr"/>
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="H22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr"/>
-      <c r="B23" s="6" t="inlineStr"/>
-      <c r="C23" s="6" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
-      <c r="E23" s="6" t="inlineStr"/>
-      <c r="F23" s="6" t="inlineStr"/>
-      <c r="G23" s="6" t="inlineStr"/>
-      <c r="H23" s="6" t="inlineStr"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr"/>
-      <c r="B24" s="6" t="inlineStr"/>
-      <c r="C24" s="6" t="inlineStr"/>
-      <c r="D24" s="6" t="inlineStr"/>
-      <c r="E24" s="6" t="inlineStr"/>
-      <c r="F24" s="6" t="inlineStr"/>
-      <c r="G24" s="6" t="inlineStr"/>
-      <c r="H24" s="6" t="inlineStr"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr"/>
-      <c r="B25" s="6" t="inlineStr"/>
-      <c r="C25" s="6" t="inlineStr"/>
-      <c r="D25" s="6" t="inlineStr"/>
-      <c r="E25" s="6" t="inlineStr"/>
-      <c r="F25" s="6" t="inlineStr"/>
-      <c r="G25" s="6" t="inlineStr"/>
-      <c r="H25" s="6" t="inlineStr"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr"/>
-      <c r="B26" s="6" t="inlineStr"/>
-      <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="inlineStr"/>
-      <c r="F26" s="6" t="inlineStr"/>
-      <c r="G26" s="6" t="inlineStr"/>
-      <c r="H26" s="6" t="inlineStr"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr"/>
-      <c r="B27" s="6" t="inlineStr"/>
-      <c r="C27" s="6" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
-      <c r="E27" s="6" t="inlineStr"/>
-      <c r="F27" s="6" t="inlineStr"/>
-      <c r="G27" s="6" t="inlineStr"/>
-      <c r="H27" s="6" t="inlineStr"/>
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr"/>
-      <c r="B28" s="6" t="inlineStr"/>
-      <c r="C28" s="6" t="inlineStr"/>
-      <c r="D28" s="6" t="inlineStr"/>
-      <c r="E28" s="6" t="inlineStr"/>
-      <c r="F28" s="6" t="inlineStr"/>
-      <c r="G28" s="6" t="inlineStr"/>
-      <c r="H28" s="6" t="inlineStr"/>
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr"/>
-      <c r="B29" s="6" t="inlineStr"/>
-      <c r="C29" s="6" t="inlineStr"/>
-      <c r="D29" s="6" t="inlineStr"/>
-      <c r="E29" s="6" t="inlineStr"/>
-      <c r="F29" s="6" t="inlineStr"/>
-      <c r="G29" s="6" t="inlineStr"/>
-      <c r="H29" s="6" t="inlineStr"/>
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
+      <c r="F29" s="6" t="n"/>
+      <c r="G29" s="6" t="n"/>
+      <c r="H29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr"/>
-      <c r="B30" s="6" t="inlineStr"/>
-      <c r="C30" s="6" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
-      <c r="E30" s="6" t="inlineStr"/>
-      <c r="F30" s="6" t="inlineStr"/>
-      <c r="G30" s="6" t="inlineStr"/>
-      <c r="H30" s="6" t="inlineStr"/>
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
+      <c r="G30" s="6" t="n"/>
+      <c r="H30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr"/>
-      <c r="B31" s="6" t="inlineStr"/>
-      <c r="C31" s="6" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
-      <c r="E31" s="6" t="inlineStr"/>
-      <c r="F31" s="6" t="inlineStr"/>
-      <c r="G31" s="6" t="inlineStr"/>
-      <c r="H31" s="6" t="inlineStr"/>
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="E31" s="6" t="n"/>
+      <c r="F31" s="6" t="n"/>
+      <c r="G31" s="6" t="n"/>
+      <c r="H31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr"/>
-      <c r="B32" s="6" t="inlineStr"/>
-      <c r="C32" s="6" t="inlineStr"/>
-      <c r="D32" s="6" t="inlineStr"/>
-      <c r="E32" s="6" t="inlineStr"/>
-      <c r="F32" s="6" t="inlineStr"/>
-      <c r="G32" s="6" t="inlineStr"/>
-      <c r="H32" s="6" t="inlineStr"/>
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="n"/>
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="H32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr"/>
-      <c r="B33" s="6" t="inlineStr"/>
-      <c r="C33" s="6" t="inlineStr"/>
-      <c r="D33" s="6" t="inlineStr"/>
-      <c r="E33" s="6" t="inlineStr"/>
-      <c r="F33" s="6" t="inlineStr"/>
-      <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="inlineStr"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="6" t="n"/>
+      <c r="E33" s="6" t="n"/>
+      <c r="F33" s="6" t="n"/>
+      <c r="G33" s="6" t="n"/>
+      <c r="H33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr"/>
-      <c r="B34" s="6" t="inlineStr"/>
-      <c r="C34" s="6" t="inlineStr"/>
-      <c r="D34" s="6" t="inlineStr"/>
-      <c r="E34" s="6" t="inlineStr"/>
-      <c r="F34" s="6" t="inlineStr"/>
-      <c r="G34" s="6" t="inlineStr"/>
-      <c r="H34" s="6" t="inlineStr"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
+      <c r="D34" s="6" t="n"/>
+      <c r="E34" s="6" t="n"/>
+      <c r="F34" s="6" t="n"/>
+      <c r="G34" s="6" t="n"/>
+      <c r="H34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr"/>
-      <c r="B35" s="6" t="inlineStr"/>
-      <c r="C35" s="6" t="inlineStr"/>
-      <c r="D35" s="6" t="inlineStr"/>
-      <c r="E35" s="6" t="inlineStr"/>
-      <c r="F35" s="6" t="inlineStr"/>
-      <c r="G35" s="6" t="inlineStr"/>
-      <c r="H35" s="6" t="inlineStr"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="n"/>
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
+      <c r="H35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
+      <c r="D36" s="6" t="n"/>
+      <c r="E36" s="6" t="n"/>
+      <c r="F36" s="6" t="n"/>
+      <c r="G36" s="6" t="n"/>
+      <c r="H36" s="6" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
+      <c r="D37" s="6" t="n"/>
+      <c r="E37" s="6" t="n"/>
+      <c r="F37" s="6" t="n"/>
+      <c r="G37" s="6" t="n"/>
+      <c r="H37" s="6" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
+      <c r="E38" s="6" t="n"/>
+      <c r="F38" s="6" t="n"/>
+      <c r="G38" s="6" t="n"/>
+      <c r="H38" s="6" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="n"/>
+      <c r="D39" s="6" t="n"/>
+      <c r="E39" s="6" t="n"/>
+      <c r="F39" s="6" t="n"/>
+      <c r="G39" s="6" t="n"/>
+      <c r="H39" s="6" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="n"/>
+      <c r="D40" s="6" t="n"/>
+      <c r="E40" s="6" t="n"/>
+      <c r="F40" s="6" t="n"/>
+      <c r="G40" s="6" t="n"/>
+      <c r="H40" s="6" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="n"/>
+      <c r="D41" s="6" t="n"/>
+      <c r="E41" s="6" t="n"/>
+      <c r="F41" s="6" t="n"/>
+      <c r="G41" s="6" t="n"/>
+      <c r="H41" s="6" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="n"/>
+      <c r="D42" s="6" t="n"/>
+      <c r="E42" s="6" t="n"/>
+      <c r="F42" s="6" t="n"/>
+      <c r="G42" s="6" t="n"/>
+      <c r="H42" s="6" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="n"/>
+      <c r="D43" s="6" t="n"/>
+      <c r="E43" s="6" t="n"/>
+      <c r="F43" s="6" t="n"/>
+      <c r="G43" s="6" t="n"/>
+      <c r="H43" s="6" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="n"/>
+      <c r="E44" s="6" t="n"/>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="6" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="6" t="n"/>
+      <c r="E45" s="6" t="n"/>
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="6" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="n"/>
+      <c r="D46" s="6" t="n"/>
+      <c r="E46" s="6" t="n"/>
+      <c r="F46" s="6" t="n"/>
+      <c r="G46" s="6" t="n"/>
+      <c r="H46" s="6" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="n"/>
+      <c r="D47" s="6" t="n"/>
+      <c r="E47" s="6" t="n"/>
+      <c r="F47" s="6" t="n"/>
+      <c r="G47" s="6" t="n"/>
+      <c r="H47" s="6" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="n"/>
+      <c r="D48" s="6" t="n"/>
+      <c r="E48" s="6" t="n"/>
+      <c r="F48" s="6" t="n"/>
+      <c r="G48" s="6" t="n"/>
+      <c r="H48" s="6" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="n"/>
+      <c r="D49" s="6" t="n"/>
+      <c r="E49" s="6" t="n"/>
+      <c r="F49" s="6" t="n"/>
+      <c r="G49" s="6" t="n"/>
+      <c r="H49" s="6" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="n"/>
+      <c r="D50" s="6" t="n"/>
+      <c r="E50" s="6" t="n"/>
+      <c r="F50" s="6" t="n"/>
+      <c r="G50" s="6" t="n"/>
+      <c r="H50" s="6" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="n"/>
+      <c r="D51" s="6" t="n"/>
+      <c r="E51" s="6" t="n"/>
+      <c r="F51" s="6" t="n"/>
+      <c r="G51" s="6" t="n"/>
+      <c r="H51" s="6" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="n"/>
+      <c r="D52" s="6" t="n"/>
+      <c r="E52" s="6" t="n"/>
+      <c r="F52" s="6" t="n"/>
+      <c r="G52" s="6" t="n"/>
+      <c r="H52" s="6" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="n"/>
+      <c r="D53" s="6" t="n"/>
+      <c r="E53" s="6" t="n"/>
+      <c r="F53" s="6" t="n"/>
+      <c r="G53" s="6" t="n"/>
+      <c r="H53" s="6" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="n"/>
+      <c r="D54" s="6" t="n"/>
+      <c r="E54" s="6" t="n"/>
+      <c r="F54" s="6" t="n"/>
+      <c r="G54" s="6" t="n"/>
+      <c r="H54" s="6" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="n"/>
+      <c r="D55" s="6" t="n"/>
+      <c r="E55" s="6" t="n"/>
+      <c r="F55" s="6" t="n"/>
+      <c r="G55" s="6" t="n"/>
+      <c r="H55" s="6" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="n"/>
+      <c r="F56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="6" t="n"/>
+      <c r="E57" s="6" t="n"/>
+      <c r="F57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="6" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="H58" s="6" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="6" t="n"/>
+      <c r="E59" s="6" t="n"/>
+      <c r="F59" s="6" t="n"/>
+      <c r="G59" s="6" t="n"/>
+      <c r="H59" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B6:H6"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
